--- a/medicine/Psychotrope/Eichhof/Eichhof.xlsx
+++ b/medicine/Psychotrope/Eichhof/Eichhof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eichhof est une brasserie de Suisse, fondée en 1834 et faisant désormais partie du groupe Heineken. Elle produit une bière homonyme.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1834 Johann Baptist Guggenbühler fonde la brasserie, qu'il revend 5 ans après. En 1878 Traugott Spiess rachète l'affaire, la brasserie devient alors la plus importante de la ville de Lucerne[réf. nécessaire].
 En 1917 un nouveau brasseur, Heinrich Endemann, habitant le manoir Eichhof, se joint à l'équipe. À la suite d'une fusion, la brasserie prend le nom Eichhof. Traugott Spiess reste président jusqu'en 1924. Il meurt en 1939.
 En 2008 Eichhof est vendue à Heineken pour 290 millions de francs.
-En octobre 2008 Heineken Switzerland déménage son siège sur le site de la brasserie Eichhof à Lucerne[1].
+En octobre 2008 Heineken Switzerland déménage son siège sur le site de la brasserie Eichhof à Lucerne.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eichhof Lager
 Eichhof Braugold
